--- a/resultWeb2.xlsx
+++ b/resultWeb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>ProductCatalogID</t>
   </si>
@@ -88,115 +88,133 @@
     <t>Status</t>
   </si>
   <si>
-    <t>5116877-50227802194</t>
-  </si>
-  <si>
-    <t>GS WORK -O-RING GASKET 140MM/160MM FOR CENTRAL LIGHT 1. GENERAL INFORMATION</t>
+    <t>5116877-32863368197</t>
+  </si>
+  <si>
+    <t>NYLON RUBBER BAND Pkt 500gm</t>
   </si>
   <si>
     <t>rubber bands</t>
   </si>
   <si>
+    <t>Ekam</t>
+  </si>
+  <si>
+    <t>http://mkp.gem.gov.in/rubber-bands/nylon-rubber-band-pkt-500gm/p-5116877-32863368197-cat.html</t>
+  </si>
+  <si>
+    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-32863368197</t>
+  </si>
+  <si>
+    <t>ST-GI12/A472-20-25</t>
+  </si>
+  <si>
+    <t>Genaric</t>
+  </si>
+  <si>
+    <t>44166.0</t>
+  </si>
+  <si>
+    <t>46022.0</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>4016.0</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>279.99</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>51415.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Already exits</t>
+  </si>
+  <si>
+    <t>5116877-15821908934</t>
+  </si>
+  <si>
+    <t>GOOD MAKE RUBBER BAND</t>
+  </si>
+  <si>
     <t>Good Make</t>
   </si>
   <si>
-    <t>http://mkp.gem.gov.in/rubber-bands/rubber-band-o-ring-gasket-140mm-160mm-central/p-5116877-50227802194-cat.html</t>
-  </si>
-  <si>
-    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-50227802194</t>
-  </si>
-  <si>
-    <t>ST-GI12/A472-20-25</t>
-  </si>
-  <si>
-    <t>Genaric</t>
-  </si>
-  <si>
-    <t>44166.0</t>
-  </si>
-  <si>
-    <t>46022.0</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>4016.0</t>
-  </si>
-  <si>
-    <t>600.0</t>
-  </si>
-  <si>
-    <t>315.31</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>51421.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?id=2382224-98466597916-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-50227802194</t>
+    <t>http://mkp.gem.gov.in/rubber-bands/rubber-band-big-size/p-5116877-15821908934-cat.html</t>
+  </si>
+  <si>
+    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-15821908934</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>398.99</t>
+  </si>
+  <si>
+    <t>51417.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?id=2382224-19041754072-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-15821908934</t>
   </si>
   <si>
     <t>Published</t>
   </si>
   <si>
-    <t>5116877-37196116890</t>
-  </si>
-  <si>
-    <t>Workstore 100202050014</t>
-  </si>
-  <si>
-    <t>http://mkp.gem.gov.in/rubber-bands/nylon-rubber-band-4-inch-assorted-colours-500/p-5116877-37196116890-cat.html</t>
-  </si>
-  <si>
-    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-37196116890</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>284.0</t>
-  </si>
-  <si>
-    <t>51423.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?id=2382224-66335392936-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-37196116890</t>
-  </si>
-  <si>
-    <t>5116877-54522434970</t>
-  </si>
-  <si>
-    <t>Workstore 100202050015</t>
-  </si>
-  <si>
-    <t>http://mkp.gem.gov.in/rubber-bands/nylon-rubber-band-2-inch-assorted-colours-500/p-5116877-54522434970-cat.html</t>
-  </si>
-  <si>
-    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-54522434970</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
-    <t>279.97</t>
-  </si>
-  <si>
-    <t>51419.0</t>
-  </si>
-  <si>
-    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?id=2382224-69116536391-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-54522434970</t>
+    <t>5116877-17154744803</t>
+  </si>
+  <si>
+    <t>R-73947</t>
+  </si>
+  <si>
+    <t>http://mkp.gem.gov.in/office-equipment-accessories-supplies/rubber-bands/p-5116877-17154744803-cat.html</t>
+  </si>
+  <si>
+    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-17154744803</t>
+  </si>
+  <si>
+    <t>430.0</t>
+  </si>
+  <si>
+    <t>380.99</t>
+  </si>
+  <si>
+    <t>51418.0</t>
+  </si>
+  <si>
+    <t>5116877-92981260387</t>
+  </si>
+  <si>
+    <t>RUBBER BAND GOOD MAKE</t>
+  </si>
+  <si>
+    <t>http://mkp.gem.gov.in/rubber-bands/rubber-band-good-make/p-5116877-92981260387-cat.html</t>
+  </si>
+  <si>
+    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-92981260387</t>
+  </si>
+  <si>
+    <t>51420.0</t>
+  </si>
+  <si>
+    <t>https://admin-mkp.gem.gov.in/#!/catalog/new?id=2382224-42904541515-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-92981260387</t>
   </si>
 </sst>
 </file>
@@ -541,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,24 +698,24 @@
         <v>41</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
         <v>42</v>
-      </c>
-      <c r="X2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>46</v>
@@ -748,27 +766,27 @@
         <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -792,16 +810,16 @@
         <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S4" t="s">
         <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
         <v>51</v>
@@ -810,23 +828,91 @@
         <v>41</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-50227802194"/>
-    <hyperlink ref="W2" r:id="rId3" location="!/catalog/new?id=2382224-98466597916-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-50227802194"/>
+    <hyperlink ref="F2" r:id="rId2" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-32863368197"/>
+    <hyperlink ref="W2" r:id="rId3" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-32863368197"/>
     <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="F3" r:id="rId5" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-37196116890"/>
-    <hyperlink ref="W3" r:id="rId6" location="!/catalog/new?id=2382224-66335392936-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-37196116890"/>
+    <hyperlink ref="F3" r:id="rId5" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-15821908934"/>
+    <hyperlink ref="W3" r:id="rId6" location="!/catalog/new?id=2382224-19041754072-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-15821908934"/>
     <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="F4" r:id="rId8" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-54522434970"/>
-    <hyperlink ref="W4" r:id="rId9" location="!/catalog/new?id=2382224-69116536391-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-54522434970"/>
+    <hyperlink ref="F4" r:id="rId8" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-17154744803"/>
+    <hyperlink ref="W4" r:id="rId9" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-17154744803"/>
+    <hyperlink ref="E5" r:id="rId10"/>
+    <hyperlink ref="F5" r:id="rId11" location="!/catalog/new?bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-92981260387"/>
+    <hyperlink ref="W5" r:id="rId12" location="!/catalog/new?id=2382224-42904541515-cat&amp;bnid=home_offi_of45811733_fast_rubb&amp;gem_catalog_id=5116877-92981260387"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
